--- a/Assets/06.Table/HellAbilBase.xlsx
+++ b/Assets/06.Table/HellAbilBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A226B0-C884-49B3-831C-3ED76455C3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EDC9EA-FD15-450C-86CA-1B0C2ECB2FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="5505" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellAbilBase" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,13 +457,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -474,47 +474,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999993E-5</v>
       </c>
     </row>
   </sheetData>
